--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -1164,7 +1164,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1862,7 +1862,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -2299,7 +2299,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t>患者への薬の供給と内服指示を共に提供するオーダ。ケアプランやワークフローパターンとハーモナイズし、入院や外来でも使えるようにするため、このリソースは"MedicationPrescription"や"MedicationOrder"ではなく、"MedicationRequest"と呼ばれる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2536,16 +2532,16 @@
         <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -2556,7 +2552,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2567,28 +2563,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2638,13 +2634,13 @@
         <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>81</v>
@@ -2670,7 +2666,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2681,25 +2677,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2750,19 +2746,19 @@
         <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -2782,7 +2778,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2793,28 +2789,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2864,19 +2860,19 @@
         <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -2896,7 +2892,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2907,7 +2903,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>81</v>
@@ -2919,16 +2915,16 @@
         <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2954,43 +2950,43 @@
         <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>81</v>
@@ -3010,18 +3006,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>81</v>
@@ -3033,16 +3029,16 @@
         <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3092,28 +3088,28 @@
         <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>81</v>
@@ -3124,11 +3120,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3147,16 +3143,16 @@
         <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3206,7 +3202,7 @@
         <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3227,7 +3223,7 @@
         <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>81</v>
@@ -3238,7 +3234,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3261,13 +3257,13 @@
         <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3306,17 +3302,17 @@
         <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3328,7 +3324,7 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>81</v>
@@ -3348,10 +3344,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>81</v>
@@ -3373,13 +3369,13 @@
         <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3430,7 +3426,7 @@
         <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3439,10 +3435,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -3462,11 +3458,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3479,25 +3475,25 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>81</v>
@@ -3546,7 +3542,7 @@
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3558,7 +3554,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>81</v>
@@ -3567,7 +3563,7 @@
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>81</v>
@@ -3578,7 +3574,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3586,7 +3582,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3601,16 +3597,16 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3648,17 +3644,17 @@
         <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3670,40 +3666,40 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3715,16 +3711,16 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3774,7 +3770,7 @@
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3786,27 +3782,27 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3817,7 +3813,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>81</v>
@@ -3829,13 +3825,13 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3886,28 +3882,28 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3918,11 +3914,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3941,16 +3937,16 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3988,19 +3984,19 @@
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4012,7 +4008,7 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>81</v>
@@ -4021,7 +4017,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4032,7 +4028,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4043,31 +4039,31 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -4092,63 +4088,63 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4159,31 +4155,31 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4208,63 +4204,63 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4272,115 +4268,115 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s" s="2">
+      <c r="T18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4388,31 +4384,31 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4426,75 +4422,75 @@
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4505,25 +4501,25 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4574,39 +4570,39 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4617,28 +4613,28 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4688,42 +4684,42 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>81</v>
@@ -4745,16 +4741,16 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4804,7 +4800,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4816,27 +4812,27 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4847,7 +4843,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4859,13 +4855,13 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4916,28 +4912,28 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4948,11 +4944,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4971,16 +4967,16 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5018,19 +5014,19 @@
         <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB24" t="s" s="2">
+      <c r="AE24" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5042,7 +5038,7 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>81</v>
@@ -5051,7 +5047,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5062,7 +5058,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5073,31 +5069,31 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -5122,63 +5118,63 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5189,31 +5185,31 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5238,63 +5234,63 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5302,115 +5298,115 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="M27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5418,31 +5414,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5456,75 +5452,75 @@
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5535,25 +5531,25 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5604,39 +5600,39 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5647,28 +5643,28 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5718,39 +5714,39 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5758,31 +5754,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5808,55 +5804,55 @@
         <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5864,7 +5860,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5875,7 +5871,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5887,16 +5883,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5922,52 +5918,52 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5978,7 +5974,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5986,31 +5982,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6036,55 +6032,55 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6092,7 +6088,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6115,16 +6111,16 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6150,14 +6146,14 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6174,7 +6170,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6186,19 +6182,19 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6206,7 +6202,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6217,28 +6213,28 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6264,55 +6260,55 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6320,7 +6316,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6331,28 +6327,28 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6402,19 +6398,19 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>81</v>
@@ -6423,7 +6419,7 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
@@ -6434,7 +6430,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6445,25 +6441,25 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6514,19 +6510,19 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>81</v>
@@ -6535,7 +6531,7 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
@@ -6546,7 +6542,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6554,31 +6550,31 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6604,63 +6600,63 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6668,31 +6664,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6742,39 +6738,39 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6785,7 +6781,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
@@ -6797,16 +6793,16 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6856,39 +6852,39 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6911,16 +6907,16 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6970,7 +6966,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6982,19 +6978,19 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7002,7 +6998,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7010,28 +7006,28 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7082,39 +7078,39 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7125,28 +7121,28 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7196,31 +7192,31 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7228,7 +7224,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7239,7 +7235,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -7251,16 +7247,16 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7310,31 +7306,31 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7342,7 +7338,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7353,28 +7349,28 @@
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7400,50 +7396,50 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -7454,7 +7450,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7465,7 +7461,7 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>81</v>
@@ -7477,16 +7473,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7536,19 +7532,19 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
@@ -7557,10 +7553,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7568,7 +7564,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7591,16 +7587,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7626,14 +7622,14 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7650,7 +7646,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7662,27 +7658,27 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7705,16 +7701,16 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7764,7 +7760,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7776,19 +7772,19 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7796,7 +7792,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7816,19 +7812,19 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7878,7 +7874,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7890,16 +7886,16 @@
         <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7910,7 +7906,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7930,19 +7926,19 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7992,7 +7988,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8004,7 +8000,7 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
@@ -8013,7 +8009,7 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -8024,7 +8020,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8044,19 +8040,19 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8106,7 +8102,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8118,16 +8114,16 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -8138,7 +8134,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8149,29 +8145,29 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8220,28 +8216,28 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -8252,7 +8248,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8263,7 +8259,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>81</v>
@@ -8275,16 +8271,16 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8310,52 +8306,52 @@
         <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -8366,7 +8362,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8389,16 +8385,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8448,7 +8444,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8460,16 +8456,16 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8480,7 +8476,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8503,16 +8499,16 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8562,7 +8558,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8574,16 +8570,16 @@
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8594,7 +8590,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8617,16 +8613,16 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8676,7 +8672,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8688,7 +8684,7 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>81</v>
@@ -8697,7 +8693,7 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8708,7 +8704,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8719,7 +8715,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8731,13 +8727,13 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8788,28 +8784,28 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
@@ -8820,7 +8816,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8831,7 +8827,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8843,13 +8839,13 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8900,28 +8896,28 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8932,7 +8928,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8955,13 +8951,13 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9000,17 +8996,17 @@
         <v>81</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9022,7 +9018,7 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>81</v>
@@ -9042,10 +9038,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>81</v>
@@ -9067,13 +9063,13 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9124,7 +9120,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9133,10 +9129,10 @@
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9156,10 +9152,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>81</v>
@@ -9169,7 +9165,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9181,13 +9177,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9238,7 +9234,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9247,10 +9243,10 @@
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -9270,11 +9266,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9287,25 +9283,25 @@
         <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="M62" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
@@ -9354,7 +9350,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9366,7 +9362,7 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
@@ -9375,7 +9371,7 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9386,7 +9382,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9397,7 +9393,7 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
@@ -9409,16 +9405,16 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9468,19 +9464,19 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9489,7 +9485,7 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9500,7 +9496,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9511,7 +9507,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9523,13 +9519,13 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9580,28 +9576,28 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9612,11 +9608,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9635,16 +9631,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9694,7 +9690,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9706,7 +9702,7 @@
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>81</v>
@@ -9715,7 +9711,7 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9726,11 +9722,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9743,25 +9739,25 @@
         <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="M66" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -9810,7 +9806,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9822,7 +9818,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>81</v>
@@ -9831,7 +9827,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9842,7 +9838,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9853,7 +9849,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9865,16 +9861,16 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9924,39 +9920,39 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9967,7 +9963,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -9979,16 +9975,16 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10038,19 +10034,19 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>81</v>
@@ -10059,7 +10055,7 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -10070,7 +10066,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10081,7 +10077,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>81</v>
@@ -10093,16 +10089,16 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10152,19 +10148,19 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10173,7 +10169,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10184,7 +10180,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10195,7 +10191,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10207,19 +10203,19 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10268,28 +10264,28 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10300,7 +10296,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10311,7 +10307,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10323,13 +10319,13 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10380,28 +10376,28 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10412,11 +10408,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10435,16 +10431,16 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10482,19 +10478,19 @@
         <v>81</v>
       </c>
       <c r="AA72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB72" t="s" s="2">
+      <c r="AE72" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10506,7 +10502,7 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>81</v>
@@ -10515,7 +10511,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10526,7 +10522,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10537,28 +10533,28 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10608,39 +10604,39 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH73" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH73" t="s" s="2">
+      <c r="AI73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AI73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10651,112 +10647,112 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Q74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE74" t="s" s="2">
+      <c r="AF74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AF74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10767,7 +10763,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>81</v>
@@ -10779,16 +10775,16 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10838,39 +10834,39 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10881,7 +10877,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
@@ -10893,16 +10889,16 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10952,39 +10948,39 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>475</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10995,7 +10991,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11007,16 +11003,16 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11066,28 +11062,28 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
@@ -11098,7 +11094,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11109,7 +11105,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
@@ -11121,13 +11117,13 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11178,28 +11174,28 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
@@ -11210,11 +11206,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11233,16 +11229,16 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11280,19 +11276,19 @@
         <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB79" t="s" s="2">
+      <c r="AE79" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11304,7 +11300,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>81</v>
@@ -11313,7 +11309,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11324,7 +11320,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11335,31 +11331,31 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
@@ -11408,39 +11404,39 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>536</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11451,112 +11447,112 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P81" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="O81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P81" t="s" s="2">
+      <c r="Q81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X81" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Q81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X81" t="s" s="2">
+      <c r="Y81" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE81" t="s" s="2">
+      <c r="AF81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11567,110 +11563,110 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="R82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE82" t="s" s="2">
+      <c r="AF82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>554</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11681,110 +11677,110 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="R83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE83" t="s" s="2">
+      <c r="AF83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH83" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AF83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH83" t="s" s="2">
+      <c r="AI83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AI83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>562</v>
-      </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11795,112 +11791,112 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE84" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="R84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE84" t="s" s="2">
+      <c r="AF84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AF84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11911,7 +11907,7 @@
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>81</v>
@@ -11923,16 +11919,16 @@
         <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L85" t="s" s="2">
-        <v>574</v>
-      </c>
       <c r="M85" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11982,19 +11978,19 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>81</v>
@@ -12003,10 +11999,10 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12014,7 +12010,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12025,7 +12021,7 @@
         <v>79</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>81</v>
@@ -12037,13 +12033,13 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12094,28 +12090,28 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
@@ -12126,7 +12122,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12137,7 +12133,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>81</v>
@@ -12149,13 +12145,13 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12206,28 +12202,28 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
@@ -12238,11 +12234,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12261,16 +12257,16 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M88" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12320,7 +12316,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -12332,7 +12328,7 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
@@ -12341,7 +12337,7 @@
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12352,11 +12348,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12369,25 +12365,25 @@
         <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="M89" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>81</v>
@@ -12436,7 +12432,7 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
@@ -12448,7 +12444,7 @@
         <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
@@ -12457,7 +12453,7 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12468,7 +12464,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12476,10 +12472,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
@@ -12491,16 +12487,16 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12526,61 +12522,61 @@
         <v>81</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>589</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12591,7 +12587,7 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>81</v>
@@ -12603,16 +12599,16 @@
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12638,63 +12634,63 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>598</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12705,7 +12701,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>81</v>
@@ -12717,16 +12713,16 @@
         <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>602</v>
-      </c>
       <c r="M92" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12776,28 +12772,28 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
@@ -12808,11 +12804,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12831,16 +12827,16 @@
         <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12890,7 +12886,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12902,7 +12898,7 @@
         <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>81</v>
@@ -12911,7 +12907,7 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
@@ -12922,7 +12918,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12945,16 +12941,16 @@
         <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13004,7 +13000,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13016,16 +13012,16 @@
         <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
